--- a/biology/Botanique/Pagamea_guianensis/Pagamea_guianensis.xlsx
+++ b/biology/Botanique/Pagamea_guianensis/Pagamea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pagamea guianensis est une espèce néotropicale d'arbre, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Pagamea Aubl.[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pagamea guianensis est une espèce néotropicale d'arbre, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Pagamea Aubl..
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pagamea guianensis est un arbre ou arbuste, atteignant 2-6(-13) m de haut, avec des rameaux de 2,6-6,5 mm de diamètre ; 
 Les feuilles mesurent 6,5-14,3 × 1,8-5,2 cm, avec des bords plats, 0-7 touffes de poils barbés sur un côté de la nervure centrale en dessous, le limbe glabre à peu pubescent, et des trichomes longs de 0,4-0,7 mm.
@@ -521,10 +535,10 @@
 Les inflorescences comportent 14-80(-124) fleurs, avec un axe primaire long de 2,5-11,3 cm, des pédoncules longs de 1,5-8,3 cm, et des axes secondaires longs de 0-7 cm.
 L'ovaire est striguleux à l'apex, visiblement entre les septa, rarement glabre.
 Le calice est glabre ou peu pubescent à l'intérieur, avec des lobes longs de 0,5-1,7 mm.
-Les fruits sont ellipsoïdes, mesurant 4,4-8,5 × 4-7,2 mm[4]
+Les fruits sont ellipsoïdes, mesurant 4,4-8,5 × 4-7,2 mm
 En 1953, Lemée en propose la description suivante de Pagamea guianensis :
 « Arbrisseau à tiges d'abord pubérulentes puis bientôt glabres ; feuilles de 0,06-0,08 sur 20-23 mm., lancéolées aiguës-acuminées, à base graduellement atténuée en pétiole, coriaces, plus pâles en dessous, avec 6-7 paires de nervures, gaine stipulaire de 7 mm. avec arêtes interpétiolaires de 3 mm. ; . inflorescences aux aisselles supérieures, dépassant les rameaux, pédonculées, formées de capitules sessiles le long du rachis ou avec les capitules inférieurs brièvement pédonculés ; fleurs à calice irrégulièrement denté ou lobé, corolle d'un vert jaunâtre 4- ou 5-mères sur la même plante à tube de 2 mm. et lobes de 2 et demi, style à 2 lobes filiformes ou fendu jusqu'à la base ; drupe de 5 mm. sur 4, verte ou bleue entourée à la base par le calice ligneux. - Maroni, Tollinche, Charvein (R. Benoist). »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -552,10 +566,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom Pagamea guianensis a été utilisé dans un sens très large pour désigner de nombreuses espèces dans toute l'aire de répartition du genre, et a parfois été appliqué à tort à des lignées qui ne sont pas immédiatement apparentées[4],[6]. 
-Pagamea guianensis compte deux à 5 variétésTropicos                                           (23 février 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom Pagamea guianensis a été utilisé dans un sens très large pour désigner de nombreuses espèces dans toute l'aire de répartition du genre, et a parfois été appliqué à tort à des lignées qui ne sont pas immédiatement apparentées,. 
+Pagamea guianensis compte deux à 5 variétésTropicos                                           (23 février 2022) :
 Pagamea guianensis var. angustifolia Progel
 Pagamea guianensis var. guianensis
 Pagamea guianensis var. macrocarpa Steyerm.
@@ -588,9 +604,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pagamea guianensis est présente sur une aire de répartition allant du Venezuela Amazonas, Apure) au Brésil en passant par le Guyana, le Suriname et la Guyane[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pagamea guianensis est présente sur une aire de répartition allant du Venezuela Amazonas, Apure) au Brésil en passant par le Guyana, le Suriname et la Guyane.
 </t>
         </is>
       </c>
@@ -619,12 +637,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pagamea guianensis pousse dans les forêts ripicoles et formations arbustives sur sables blancs temporairement inondés (bana, campina, campinarana), à 25-300 m d'altitude[4].
-Les fruits sont consommés et les graines disseminées par le Tangara à bec d'argent (Ramphocelus carbo)[7].
-Pagamea guianensis est l'arbre ayant la seconde biomasse aérienne la plus élevée (1,14 t.ha-1) dans un écosystème de "campina" du Roraima[8].
-La place écosystèmique de Pagamea guianensis a été abordée dans des savanes du nord du Suriname[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pagamea guianensis pousse dans les forêts ripicoles et formations arbustives sur sables blancs temporairement inondés (bana, campina, campinarana), à 25-300 m d'altitude.
+Les fruits sont consommés et les graines disseminées par le Tangara à bec d'argent (Ramphocelus carbo).
+Pagamea guianensis est l'arbre ayant la seconde biomasse aérienne la plus élevée (1,14 t.ha-1) dans un écosystème de "campina" du Roraima.
+La place écosystèmique de Pagamea guianensis a été abordée dans des savanes du nord du Suriname.
 </t>
         </is>
       </c>
@@ -653,11 +673,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pagamea guianensis est une espèces pionnières employée pour la restauration des zones dunaires dégradées sur la côte amazonienne[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pagamea guianensis est une espèces pionnières employée pour la restauration des zones dunaires dégradées sur la côte amazonienne.
 Chez les Mestizo de Iquitos, la décoction de tiges séchées est utilisée pour sa substance amère ("principio amargo"). Les espèces du genre Pagamea (ex: Pagamea macrophylla) sont employées traditionnellement pour leurs propriétés psychoactives.
-L'extrait de ses feuilles présente de légères propriétés anti-paludéennes[11].
+L'extrait de ses feuilles présente de légères propriétés anti-paludéennes.
 </t>
         </is>
       </c>
@@ -686,9 +708,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[12] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. PAGAMA guianensis. (Tabula 44.)
 Frutex, ſeptem aut octo-pedalis, ramoſus, ramulis inclinatis. Folia oppoſita, lanceolata, glabra, integerrima, petiolata, petiolis adhærent. Stipula amplexicaulis, biloba, lobis acutis, oppoſitis. Flores ſeſſiles, oppoſiti, laxc ſpicati, axillares, &amp; terminales.
 Florebat &amp; fructum ferebat Auguſto.
